--- a/колебания в контуре/R100_Om.xlsx
+++ b/колебания в контуре/R100_Om.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
